--- a/results/branchpredict.xlsx
+++ b/results/branchpredict.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>Indirect Branches</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Table Only</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>mispred</t>
   </si>
 </sst>
 </file>
@@ -244,17 +250,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0051020408163"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
@@ -597,7 +603,10 @@
         <f aca="false">D13/C13</f>
         <v>0.289279910003415</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <f aca="false">AVERAGE(E10:E16)</f>
+        <v>0.184147805702677</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -846,7 +855,10 @@
         <f aca="false">D22/C22</f>
         <v>0.665562560261382</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="n">
+        <f aca="false">AVERAGE(E18:E24)</f>
+        <v>0.499810007272695</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -974,7 +986,10 @@
         <f aca="false">D27/C27</f>
         <v>0.345010636012975</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="n">
+        <f aca="false">AVERAGE(E26:E32)</f>
+        <v>0.185814541753639</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1431,6 +1446,12 @@
       <c r="F47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
+      <c r="Q47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
@@ -1450,7 +1471,9 @@
         <v>0.289279910003415</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1495,22 @@
       </c>
       <c r="F49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="O49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>31492889979</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">P49-R49</f>
+        <v>28629447240</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>2863442739</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
@@ -1493,7 +1531,22 @@
       </c>
       <c r="F50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="O50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>31492889979</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">P50-R50</f>
+        <v>14314985800</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>17177904179</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -1516,7 +1569,22 @@
       </c>
       <c r="F51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="O51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>31492889979</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">P51-R51</f>
+        <v>28629447240</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>2863442739</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
@@ -1536,7 +1604,9 @@
         <v>0.227268270845914</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="N52" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="O52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,7 +1628,22 @@
       </c>
       <c r="F53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="O53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>10202767734</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">P53-R53</f>
+        <v>7279455249</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>2923312485</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
@@ -1579,7 +1664,22 @@
       </c>
       <c r="F54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+      <c r="O54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>10202767734</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">P54-R54</f>
+        <v>5045052543</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>5157715191</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
@@ -1602,7 +1702,22 @@
       </c>
       <c r="F55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+      <c r="O55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>10202767734</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">P55-R55</f>
+        <v>6682704349</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>3520063385</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
@@ -1622,7 +1737,9 @@
         <v>0.000134228372977381</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="N56" s="6"/>
+      <c r="N56" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="O56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1761,22 @@
       </c>
       <c r="F57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="O57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>3079415632</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">P57-R57</f>
+        <v>2777331430</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>302084202</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
@@ -1665,7 +1797,22 @@
       </c>
       <c r="F58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
+      <c r="O58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>3079415632</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">P58-R58</f>
+        <v>2527207846</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>552207786</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -1688,7 +1835,22 @@
       </c>
       <c r="F59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
+      <c r="O59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>3079415632</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">P59-R59</f>
+        <v>3025248687</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>54166945</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
@@ -1708,7 +1870,9 @@
         <v>0.29680934871702</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="N60" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="O60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,7 +1894,22 @@
       </c>
       <c r="F61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
+      <c r="O61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>6401505120</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <f aca="false">P61-R61</f>
+        <v>4549678295</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1851826825</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
@@ -1751,7 +1930,217 @@
       </c>
       <c r="F62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
+      <c r="O62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>6401505120</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <f aca="false">P62-R62</f>
+        <v>3100143151</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>3301361969</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>6401505120</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <f aca="false">P63-R63</f>
+        <v>4899360247</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1502144873</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>13506897459</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <f aca="false">P65-R65</f>
+        <v>10437208229</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>3069689230</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>13506897459</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <f aca="false">P66-R66</f>
+        <v>4517212205</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>8989685254</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>13506897459</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <f aca="false">P67-R67</f>
+        <v>9244315131</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>4262582328</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N68" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O69" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>24690256810</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <f aca="false">P69-R69</f>
+        <v>24686942677</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>3314133</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O70" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>24690256810</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <f aca="false">P70-R70</f>
+        <v>12346481823</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>12343774987</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>24690256810</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <f aca="false">P71-R71</f>
+        <v>24687099667</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>3157143</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N72" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>182287976534</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">P73-R73</f>
+        <v>128183200940</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>54104775594</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>182287976534</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">P74-R74</f>
+        <v>75257786444</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>107030190090</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>182287976534</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">P75-R75</f>
+        <v>128183216939</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>54104759595</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/results/branchpredict.xlsx
+++ b/results/branchpredict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -169,9 +169,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -252,8 +252,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -354,7 +354,7 @@
         <v>8.53247441007785E-006</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -513,6 +513,10 @@
         <v>0.0909234668812355</v>
       </c>
       <c r="F10" s="4"/>
+      <c r="G10" s="4" t="n">
+        <f aca="false">1-E10</f>
+        <v>0.909076533118764</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -543,8 +547,14 @@
         <v>0.286521516633008</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="4" t="n">
+        <f aca="false">1-E11</f>
+        <v>0.713478483366992</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">AVERAGE(G10:G16)</f>
+        <v>0.815852194297322</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -574,6 +584,10 @@
         <v>0.0980978984651722</v>
       </c>
       <c r="F12" s="4"/>
+      <c r="G12" s="4" t="n">
+        <f aca="false">1-E12</f>
+        <v>0.901902101534828</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -607,6 +621,10 @@
         <f aca="false">AVERAGE(E10:E16)</f>
         <v>0.184147805702677</v>
       </c>
+      <c r="G13" s="4" t="n">
+        <f aca="false">1-E13</f>
+        <v>0.710720089996585</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -637,6 +655,10 @@
         <v>0.227268270845914</v>
       </c>
       <c r="F14" s="4"/>
+      <c r="G14" s="4" t="n">
+        <f aca="false">1-E14</f>
+        <v>0.772731729154086</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -667,6 +689,10 @@
         <v>0.000134228372977381</v>
       </c>
       <c r="F15" s="4"/>
+      <c r="G15" s="4" t="n">
+        <f aca="false">1-E15</f>
+        <v>0.999865771627023</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -697,6 +723,10 @@
         <v>0.29680934871702</v>
       </c>
       <c r="F16" s="4"/>
+      <c r="G16" s="4" t="n">
+        <f aca="false">1-E16</f>
+        <v>0.70319065128298</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -714,6 +744,7 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
@@ -735,6 +766,10 @@
         <v>0.545453408386925</v>
       </c>
       <c r="F18" s="4"/>
+      <c r="G18" s="4" t="n">
+        <f aca="false">1-E18</f>
+        <v>0.454546591613075</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -765,7 +800,14 @@
         <v>0.505521180670641</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="4" t="n">
+        <f aca="false">1-E19</f>
+        <v>0.494478819329359</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">AVERAGE(G18:G24)</f>
+        <v>0.500189992727305</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -795,7 +837,10 @@
         <v>0.179322264997842</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="4" t="n">
+        <f aca="false">1-E20</f>
+        <v>0.820677735002158</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -826,8 +871,15 @@
         <v>0.515716524022713</v>
       </c>
       <c r="F21" s="4"/>
+      <c r="G21" s="4" t="n">
+        <f aca="false">1-E21</f>
+        <v>0.484283475977287</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="6" t="n">
+        <f aca="false">AVERAGE(H11,H27)</f>
+        <v>0.815018826271842</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -859,8 +911,15 @@
         <f aca="false">AVERAGE(E18:E24)</f>
         <v>0.499810007272695</v>
       </c>
+      <c r="G22" s="4" t="n">
+        <f aca="false">1-E22</f>
+        <v>0.334437439738618</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="n">
+        <f aca="false">I21/H19</f>
+        <v>1.62941849721527</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -889,6 +948,10 @@
         <v>0.499945184126256</v>
       </c>
       <c r="F23" s="4"/>
+      <c r="G23" s="4" t="n">
+        <f aca="false">1-E23</f>
+        <v>0.500054815873744</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -919,6 +982,10 @@
         <v>0.587148928443105</v>
       </c>
       <c r="F24" s="4"/>
+      <c r="G24" s="4" t="n">
+        <f aca="false">1-E24</f>
+        <v>0.412851071556895</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -936,6 +1003,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
@@ -957,6 +1025,10 @@
         <v>0.0909234668812355</v>
       </c>
       <c r="F26" s="4"/>
+      <c r="G26" s="4" t="n">
+        <f aca="false">1-E26</f>
+        <v>0.909076533118764</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -990,7 +1062,14 @@
         <f aca="false">AVERAGE(E26:E32)</f>
         <v>0.185814541753639</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="G27" s="4" t="n">
+        <f aca="false">1-E27</f>
+        <v>0.654989363987025</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">AVERAGE(G26:G32)</f>
+        <v>0.814185458246361</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1020,7 +1099,10 @@
         <v>0.0175900078044418</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="4" t="n">
+        <f aca="false">1-E28</f>
+        <v>0.982409992195558</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1051,6 +1133,10 @@
         <v>0.234654951428048</v>
       </c>
       <c r="F29" s="4"/>
+      <c r="G29" s="4" t="n">
+        <f aca="false">1-E29</f>
+        <v>0.765345048571952</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1081,6 +1167,10 @@
         <v>0.315585599205073</v>
       </c>
       <c r="F30" s="4"/>
+      <c r="G30" s="4" t="n">
+        <f aca="false">1-E30</f>
+        <v>0.684414400794927</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1111,6 +1201,10 @@
         <v>0.000127869994398815</v>
       </c>
       <c r="F31" s="4"/>
+      <c r="G31" s="4" t="n">
+        <f aca="false">1-E31</f>
+        <v>0.999872130005601</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1141,6 +1235,10 @@
         <v>0.296809260949301</v>
       </c>
       <c r="F32" s="4"/>
+      <c r="G32" s="4" t="n">
+        <f aca="false">1-E32</f>
+        <v>0.703190739050699</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1181,13 +1279,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A35,$B2:$B8,0),D$34)</f>
         <v>49</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A35,$B2:$B8,0),E$34)</f>
         <v>0.236714975845411</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
@@ -1202,13 +1300,13 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A35,$B10:$B16,0),D$34)</f>
         <v>2863442739</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A35,$B10:$B16,0),E$34)</f>
         <v>0.0909234668812355</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
@@ -1223,13 +1321,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A35,$B18:$B24,0),D$34)</f>
         <v>17177904179</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A35,$B18:$B24,0),E$34)</f>
         <v>0.545453408386925</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
@@ -1244,13 +1342,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A35,$B26:$B32,0),D$34)</f>
         <v>2863442739</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A35,$B26:$B32,0),E$34)</f>
         <v>0.0909234668812355</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -1267,13 +1365,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A39,$B2:$B8,0),D$34)</f>
         <v>82</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A39,$B2:$B8,0),E$34)</f>
         <v>0.00012709532924665</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="F39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
@@ -1288,13 +1386,13 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A39,$B10:$B16,0),D$34)</f>
         <v>2923312485</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A39,$B10:$B16,0),E$34)</f>
         <v>0.286521516633008</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
@@ -1309,13 +1407,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A39,$B18:$B24,0),D$34)</f>
         <v>5157715191</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A39,$B18:$B24,0),E$34)</f>
         <v>0.505521180670641</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
@@ -1330,13 +1428,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A39,$B26:$B32,0),D$34)</f>
         <v>3520063385</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A39,$B26:$B32,0),E$34)</f>
         <v>0.345010636012975</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="F42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -1353,13 +1451,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A43,$B2:$B8,0),D$34)</f>
         <v>91</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A43,$B2:$B8,0),E$34)</f>
         <v>8.53247441007785E-006</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
@@ -1374,13 +1472,13 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A43,$B10:$B16,0),D$34)</f>
         <v>302084202</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A43,$B10:$B16,0),E$34)</f>
         <v>0.0980978984651722</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
@@ -1395,13 +1493,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A43,$B18:$B24,0),D$34)</f>
         <v>552207786</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A43,$B18:$B24,0),E$34)</f>
         <v>0.179322264997842</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
@@ -1416,13 +1514,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A43,$B26:$B32,0),D$34)</f>
         <v>54166945</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A43,$B26:$B32,0),E$34)</f>
         <v>0.0175900078044418</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -1439,13 +1537,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A47,$B2:$B8,0),D$34)</f>
         <v>77</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A47,$B2:$B8,0),E$34)</f>
         <v>1.53834938802703E-007</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
       <c r="Q47" s="0" t="s">
         <v>14</v>
       </c>
@@ -1466,15 +1564,15 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A47,$B10:$B16,0),D$34)</f>
         <v>1851826825</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A47,$B10:$B16,0),E$34)</f>
         <v>0.289279910003415</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="N48" s="6" t="s">
+      <c r="F48" s="4"/>
+      <c r="N48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="6"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
@@ -1489,13 +1587,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A47,$B18:$B24,0),D$34)</f>
         <v>3301361969</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A47,$B18:$B24,0),E$34)</f>
         <v>0.515716524022713</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6" t="s">
+      <c r="F49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P49" s="0" t="n">
@@ -1525,13 +1623,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A47,$B26:$B32,0),D$34)</f>
         <v>1502144873</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A47,$B26:$B32,0),E$34)</f>
         <v>0.234654951428048</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6" t="s">
+      <c r="F50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P50" s="0" t="n">
@@ -1563,13 +1661,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A51,$B2:$B8,0),D$34)</f>
         <v>75</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A51,$B2:$B8,0),E$34)</f>
         <v>0.315126050420168</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6" t="s">
+      <c r="F51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P51" s="0" t="n">
@@ -1599,15 +1697,15 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A51,$B10:$B16,0),D$34)</f>
         <v>3069689230</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A51,$B10:$B16,0),E$34)</f>
         <v>0.227268270845914</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="N52" s="6" t="s">
+      <c r="F52" s="4"/>
+      <c r="N52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="6"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
@@ -1622,13 +1720,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A51,$B18:$B24,0),D$34)</f>
         <v>8989685254</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A51,$B18:$B24,0),E$34)</f>
         <v>0.665562560261382</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6" t="s">
+      <c r="F53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P53" s="0" t="n">
@@ -1658,13 +1756,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A51,$B26:$B32,0),D$34)</f>
         <v>4262582328</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A51,$B26:$B32,0),E$34)</f>
         <v>0.315585599205073</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6" t="s">
+      <c r="F54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P54" s="0" t="n">
@@ -1696,13 +1794,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A55,$B2:$B8,0),D$34)</f>
         <v>58</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A55,$B2:$B8,0),E$34)</f>
         <v>5.79826631837081E-005</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6" t="s">
+      <c r="F55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P55" s="0" t="n">
@@ -1732,15 +1830,15 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A55,$B10:$B16,0),D$34)</f>
         <v>3314133</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A55,$B10:$B16,0),E$34)</f>
         <v>0.000134228372977381</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="N56" s="6" t="s">
+      <c r="F56" s="4"/>
+      <c r="N56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O56" s="6"/>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
@@ -1755,13 +1853,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A55,$B18:$B24,0),D$34)</f>
         <v>12343774987</v>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A55,$B18:$B24,0),E$34)</f>
         <v>0.499945184126256</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6" t="s">
+      <c r="F57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P57" s="0" t="n">
@@ -1791,13 +1889,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A55,$B26:$B32,0),D$34)</f>
         <v>3157143</v>
       </c>
-      <c r="E58" s="6" t="n">
+      <c r="E58" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A55,$B26:$B32,0),E$34)</f>
         <v>0.000127869994398815</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6" t="s">
+      <c r="F58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P58" s="0" t="n">
@@ -1829,13 +1927,13 @@
         <f aca="false">INDEX($C2:$T8,MATCH($A59,$B2:$B8,0),D$34)</f>
         <v>80</v>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="E59" s="4" t="n">
         <f aca="false">INDEX($C2:$T8,MATCH($A59,$B2:$B8,0),E$34)</f>
         <v>0.334728033472803</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6" t="s">
+      <c r="F59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P59" s="0" t="n">
@@ -1865,15 +1963,15 @@
         <f aca="false">INDEX($C10:$T16,MATCH($A59,$B10:$B16,0),D$34)</f>
         <v>54104775594</v>
       </c>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="4" t="n">
         <f aca="false">INDEX($C10:$T16,MATCH($A59,$B10:$B16,0),E$34)</f>
         <v>0.29680934871702</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="N60" s="6" t="s">
+      <c r="F60" s="4"/>
+      <c r="N60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O60" s="6"/>
+      <c r="O60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
@@ -1888,13 +1986,13 @@
         <f aca="false">INDEX($C18:$T24,MATCH($A59,$B18:$B24,0),D$34)</f>
         <v>107030190090</v>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="4" t="n">
         <f aca="false">INDEX($C18:$T24,MATCH($A59,$B18:$B24,0),E$34)</f>
         <v>0.587148928443105</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6" t="s">
+      <c r="F61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P61" s="0" t="n">
@@ -1924,13 +2022,13 @@
         <f aca="false">INDEX($C26:$T32,MATCH($A59,$B26:$B32,0),D$34)</f>
         <v>54104759595</v>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="4" t="n">
         <f aca="false">INDEX($C26:$T32,MATCH($A59,$B26:$B32,0),E$34)</f>
         <v>0.296809260949301</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6" t="s">
+      <c r="F62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P62" s="0" t="n">
